--- a/src/Tests/Book.xlsx
+++ b/src/Tests/Book.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">First Column</t>
   </si>
@@ -38,13 +38,19 @@
     <t xml:space="preserve">Data Nascimento</t>
   </si>
   <si>
-    <t xml:space="preserve">Altura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José da Silva</t>
+    <t xml:space="preserve">Patrimônio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Bonifácio</t>
   </si>
   <si>
     <t xml:space="preserve">01234567890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reis</t>
   </si>
 </sst>
 </file>
@@ -54,7 +60,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -157,7 +163,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
   </cols>
@@ -506,17 +512,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,19 +539,25 @@
       <c r="D1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>35124</v>
+        <v>-49873</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.84</v>
+        <v>8000000000.99</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/Tests/Book.xlsx
+++ b/src/Tests/Book.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">First Column</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t xml:space="preserve">Reis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon Musk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11122233344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dollar</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
   </cols>
@@ -512,17 +521,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.89"/>
   </cols>
   <sheetData>
@@ -533,7 +542,7 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -558,6 +567,23 @@
       </c>
       <c r="E2" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>26112</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2345000000000000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
